--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>21,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,86</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>38,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>61,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>59,55%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,41; 18,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,05</t>
+          <t>13,56; 22,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 23,27</t>
+          <t>17,31; 26,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 26,28</t>
+          <t>26,67; 54,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,21; 83,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 52,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>42,79; 83,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>42,03; 78,61</t>
+          <t>43,7; 78,81</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>76,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>68,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>60,17%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 9,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,84</t>
+          <t>5,3; 9,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,77</t>
+          <t>2,04; 13,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 13,01</t>
+          <t>45,21; 108,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,92; 99,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,5; 112,25</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>45,21; 97,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>20,99; 113,9</t>
+          <t>18,9; 122,54</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>66,81%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>16,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>77,81%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 8,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,6</t>
+          <t>-2,35; 5,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,26</t>
+          <t>5,65; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 13,36</t>
+          <t>1,47; 193,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,21; 76,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 179,31</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-21,91; 74,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>37,51; 123,74</t>
+          <t>39,65; 126,34</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>71,38%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>72,63%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>74,41%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,04; 14,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,35</t>
+          <t>8,89; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,84</t>
+          <t>7,55; 16,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 16,6</t>
+          <t>55,24; 88,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,64; 92,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,61; 89,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>56,16; 90,71</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>45,09; 115,11</t>
+          <t>45,09; 113,8</t>
         </is>
       </c>
     </row>
@@ -1016,11 +920,11 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
